--- a/OnBoard/output/trust/bio/Bio_Trust_55.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_55.xlsx
@@ -2780,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="I51">
         <v>109</v>
